--- a/Income/ADM_inc.xlsx
+++ b/Income/ADM_inc.xlsx
@@ -1948,16 +1948,16 @@
         <v>0.0781</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.0754</v>
+        <v>0.0735</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.07</v>
+        <v>0.0682</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.0659</v>
+        <v>0.064</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.0659</v>
+        <v>0.0641</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.0627</v>
@@ -2205,7 +2205,7 @@
         <v>0.0256</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.0245</v>
+        <v>0.0246</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.0218</v>
@@ -2320,10 +2320,10 @@
         <v>0.0275</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.0253</v>
+        <v>0.0254</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.0275</v>
+        <v>0.0276</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0.0239</v>
@@ -2450,7 +2450,7 @@
         <v>-0.0619</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-0.076</v>
+        <v>-0.0761</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>-0.0971</v>
@@ -3456,16 +3456,16 @@
         <v>0.0517</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.0498</v>
+        <v>0.0479</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.0461</v>
+        <v>0.0442</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.0426</v>
+        <v>0.0407</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.0428</v>
+        <v>0.0409</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.0406</v>
@@ -3546,16 +3546,16 @@
         <v>0.0272</v>
       </c>
       <c r="AH27" s="0" t="n">
-        <v>0.0278</v>
+        <v>0.0298</v>
       </c>
       <c r="AI27" s="0" t="n">
-        <v>0.031</v>
+        <v>0.033</v>
       </c>
       <c r="AJ27" s="0" t="n">
-        <v>0.2879</v>
+        <v>0.2899</v>
       </c>
       <c r="AK27" s="0" t="n">
-        <v>0.2875</v>
+        <v>0.2896</v>
       </c>
       <c r="AL27" s="0" t="n">
         <v>0.3053</v>
